--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.57468866666667</v>
+        <v>16.69780766666667</v>
       </c>
       <c r="N2">
-        <v>133.724066</v>
+        <v>50.093423</v>
       </c>
       <c r="O2">
-        <v>0.5438239100642481</v>
+        <v>0.3087131902856588</v>
       </c>
       <c r="P2">
-        <v>0.5438239100642481</v>
+        <v>0.3087131902856588</v>
       </c>
       <c r="Q2">
-        <v>2.075798676518</v>
+        <v>0.777600205229</v>
       </c>
       <c r="R2">
-        <v>18.682188088662</v>
+        <v>6.998401847061</v>
       </c>
       <c r="S2">
-        <v>0.5438239100642481</v>
+        <v>0.3087131902856588</v>
       </c>
       <c r="T2">
-        <v>0.5438239100642481</v>
+        <v>0.3087131902856588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,13 +617,13 @@
         <v>27.876023</v>
       </c>
       <c r="N3">
-        <v>83.62806900000001</v>
+        <v>83.628069</v>
       </c>
       <c r="O3">
-        <v>0.3400954281086752</v>
+        <v>0.5153787949052554</v>
       </c>
       <c r="P3">
-        <v>0.3400954281086753</v>
+        <v>0.5153787949052554</v>
       </c>
       <c r="Q3">
         <v>1.298158515087</v>
@@ -632,10 +632,10 @@
         <v>11.683426635783</v>
       </c>
       <c r="S3">
-        <v>0.3400954281086752</v>
+        <v>0.5153787949052554</v>
       </c>
       <c r="T3">
-        <v>0.3400954281086753</v>
+        <v>0.5153787949052554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>28.543758</v>
       </c>
       <c r="O4">
-        <v>0.1160806618270765</v>
+        <v>0.1759080148090858</v>
       </c>
       <c r="P4">
-        <v>0.1160806618270766</v>
+        <v>0.1759080148090857</v>
       </c>
       <c r="Q4">
         <v>0.4430847554340001</v>
@@ -694,10 +694,10 @@
         <v>3.987762798906</v>
       </c>
       <c r="S4">
-        <v>0.1160806618270765</v>
+        <v>0.1759080148090858</v>
       </c>
       <c r="T4">
-        <v>0.1160806618270766</v>
+        <v>0.1759080148090857</v>
       </c>
     </row>
   </sheetData>
